--- a/APIAutomation/API_AUTO/test_data/test_data.xlsx
+++ b/APIAutomation/API_AUTO/test_data/test_data.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>{'status': 1, 'code': '10001', 'data': {'id': 272130, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '15096090608', 'leaveamount': '26600.00', 'type': '1', 'regtime': '2019-12-25 00:09:42.0'}, 'msg': '充值成功'}</t>
+          <t>{'status': 1, 'code': '10001', 'data': {'id': 272130, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '15096090608', 'leaveamount': '30600.00', 'type': '1', 'regtime': '2019-12-25 00:09:42.0'}, 'msg': '充值成功'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">

--- a/APIAutomation/API_AUTO/test_data/test_data.xlsx
+++ b/APIAutomation/API_AUTO/test_data/test_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="register旧" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="business" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="知识补充" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register旧" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="business" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="知识补充" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -109,61 +109,61 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle builtinId="8" name="超链接" xfId="2"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -466,8 +466,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="68"/>
-    <col customWidth="1" max="3" min="3" width="55.25"/>
+    <col width="68" customWidth="1" min="2" max="2"/>
+    <col width="55.25" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -598,17 +598,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="B2" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="B3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="B4" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -621,10 +621,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="68"/>
-    <col customWidth="1" max="3" min="3" width="55.25"/>
-    <col customWidth="1" max="4" min="4" width="25.25"/>
-    <col customWidth="1" max="8" min="8" width="39.125"/>
+    <col width="68" customWidth="1" min="2" max="2"/>
+    <col width="55.25" customWidth="1" min="3" max="3"/>
+    <col width="25.25" customWidth="1" min="4" max="4"/>
+    <col width="39.125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -793,17 +793,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="B2" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="B3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="B4" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -816,11 +816,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="64"/>
-    <col customWidth="1" max="3" min="3" width="52.875"/>
-    <col customWidth="1" max="4" min="4" width="25.25"/>
-    <col customWidth="1" max="5" min="5" width="14.375"/>
-    <col customWidth="1" max="6" min="6" width="22.125"/>
+    <col width="64" customWidth="1" min="2" max="2"/>
+    <col width="52.875" customWidth="1" min="3" max="3"/>
+    <col width="25.25" customWidth="1" min="4" max="4"/>
+    <col width="14.375" customWidth="1" min="5" max="5"/>
+    <col width="22.125" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1003,18 +1003,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="B2" r:id="rId1"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="B3" r:id="rId2"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="B4" r:id="rId3"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="B5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1027,10 +1027,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="66.375"/>
-    <col customWidth="1" max="4" min="3" width="55.625"/>
-    <col customWidth="1" max="8" min="8" width="72.5"/>
-    <col customWidth="1" max="10" min="10" width="22.75"/>
+    <col width="66.375" customWidth="1" min="2" max="2"/>
+    <col width="55.625" customWidth="1" min="3" max="4"/>
+    <col width="72.5" customWidth="1" min="8" max="8"/>
+    <col width="22.75" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>{'status': 1, 'code': '10001', 'data': {'id': 272130, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '15096090608', 'leaveamount': '30600.00', 'type': '1', 'regtime': '2019-12-25 00:09:42.0'}, 'msg': '充值成功'}</t>
+          <t>{'status': 1, 'code': '10001', 'data': {'id': 272130, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '15096090608', 'leaveamount': '31600.00', 'type': '1', 'regtime': '2019-12-25 00:09:42.0'}, 'msg': '充值成功'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -1295,16 +1295,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1317,10 +1317,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="60.625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="54.125"/>
-    <col customWidth="1" max="4" min="4" width="25.25"/>
-    <col customWidth="1" max="8" min="8" width="88.625"/>
+    <col width="60.625" customWidth="1" min="2" max="2"/>
+    <col width="54.125" customWidth="1" style="8" min="3" max="3"/>
+    <col width="25.25" customWidth="1" min="4" max="4"/>
+    <col width="88.625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="2">
+    <row r="2" ht="42.75" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="3">
+    <row r="3" ht="42.75" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="4">
+    <row r="4" ht="42.75" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="5">
+    <row r="5" ht="42.75" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="6">
+    <row r="6" ht="42.75" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="7">
+    <row r="7" ht="42.75" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="8">
+    <row r="8" ht="42.75" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -1641,20 +1641,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="B5" r:id="rId4"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan" ref="B6" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" display="http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1667,11 +1667,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="11" width="61.625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="51.375"/>
-    <col customWidth="1" max="4" min="4" width="25.25"/>
-    <col customWidth="1" max="7" min="7" width="13.625"/>
-    <col customWidth="1" max="8" min="8" width="38.125"/>
+    <col width="61.625" customWidth="1" style="11" min="2" max="2"/>
+    <col width="51.375" customWidth="1" style="8" min="3" max="3"/>
+    <col width="25.25" customWidth="1" min="4" max="4"/>
+    <col width="13.625" customWidth="1" min="7" max="7"/>
+    <col width="38.125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="73.5" r="2">
+    <row r="2" ht="73.5" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="73.5" r="3">
+    <row r="3" ht="73.5" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="73.5" r="4">
+    <row r="4" ht="73.5" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -1830,11 +1830,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1853,9 +1853,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.75"/>
-    <col customWidth="1" max="2" min="2" width="16.625"/>
-    <col customWidth="1" max="3" min="3" width="16.375"/>
+    <col width="12.75" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.625" customWidth="1" min="2" max="2"/>
+    <col width="16.375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1941,7 +1941,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1960,7 +1960,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="41"/>
+    <col width="41" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2020,6 +2020,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>